--- a/剧情线.xlsx
+++ b/剧情线.xlsx
@@ -4,13 +4,123 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="3104" windowHeight="24720"/>
+    <workbookView windowHeight="24720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>这个时候其实除了迪娜以外所有人都已经中了毒了。</t>
+  </si>
+  <si>
+    <t>时间线</t>
+  </si>
+  <si>
+    <t>所有人来到大厅。</t>
+  </si>
+  <si>
+    <t>晚宴正式开始。所有开始喝第一杯酒。</t>
+  </si>
+  <si>
+    <t>所有人碰了一杯，但是唯独迪娜没有喝。</t>
+  </si>
+  <si>
+    <t>鬼王</t>
+  </si>
+  <si>
+    <t>鬼王去储藏室，拿自己珍藏已久的酒。</t>
+  </si>
+  <si>
+    <t>询问狼王前几天攻击迪娜的事情他是否知情。</t>
+  </si>
+  <si>
+    <t>科学怪人</t>
+  </si>
+  <si>
+    <t>此时的科学怪人看着异常的兴奋，头上不断的冒出闪电。</t>
+  </si>
+  <si>
+    <t>科学怪人发现这个酒有问题， 但是这个桌子上，除了迪娜，他谁都不在乎。</t>
+  </si>
+  <si>
+    <t>2、科学怪人表演节目，不小心把迪娜的酒杯碰碎了。</t>
+  </si>
+  <si>
+    <t>狼王</t>
+  </si>
+  <si>
+    <t>狼王看起来心事重重。</t>
+  </si>
+  <si>
+    <t>你随着鬼王一起去拿酒。</t>
+  </si>
+  <si>
+    <t>被鬼王询问前几天攻击迪娜的事情。</t>
+  </si>
+  <si>
+    <t>女巫</t>
+  </si>
+  <si>
+    <t>女巫看起来心事重重。</t>
+  </si>
+  <si>
+    <t>女巫来到餐厅中，询问迪娜为什么心情不好，同时将毒药放进酒杯中。</t>
+  </si>
+  <si>
+    <t>1、女巫看到迪娜没有喝，就找借口跟她碰杯。</t>
+  </si>
+  <si>
+    <t>木乃伊</t>
+  </si>
+  <si>
+    <t>一直望着迪娜的身影。</t>
+  </si>
+  <si>
+    <t>木乃伊偷偷来到迪娜的房间，将自己的提前准备的信件放在了迪娜的房间中。</t>
+  </si>
+  <si>
+    <t>公主</t>
+  </si>
+  <si>
+    <t>心不在焉的坐在角落中。</t>
+  </si>
+  <si>
+    <t>迪娜来到餐厅中，指挥仆人们安排晚餐</t>
+  </si>
+  <si>
+    <t>女巫来到你旁边，关心的询问你的事情。随后递过来一个纸巾让你擦干眼泪。</t>
+  </si>
+  <si>
+    <t>公主因为心情不好，没有喝第一杯酒。这个事情还被鬼王骂不懂规矩。</t>
+  </si>
+  <si>
+    <t>3、迪娜去厨房换了一个酒杯。</t>
+  </si>
+  <si>
+    <t>线索</t>
+  </si>
+  <si>
+    <t>1、洒在酒杯盘子上的白色粉末。（用于揭开女巫的毒）</t>
+  </si>
+  <si>
+    <t>1、被迪娜撕掉的信件，远走高飞。（用于揭开木乃伊身份）</t>
+  </si>
+  <si>
+    <t>1、科学怪人拥有超强的大脑。</t>
+  </si>
+  <si>
+    <t>1、所有人的酒杯中都检测到了剧毒，但是唯独迪娜的酒杯中没有。（因为点酒杯碎了，去换了一个新的）</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,7 +131,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33,9 +143,8 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -46,6 +155,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -402,6 +523,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -516,162 +650,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,114 +1169,513 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AF5"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="15.6428571428571" customWidth="1"/>
+    <col min="1" max="16369" width="15.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="2:32">
-      <c r="B1" s="2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="B1" s="6">
         <v>0.25</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="6">
         <v>0.260416666666667</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <v>0.263888888888889</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="6">
         <v>0.267361111111111</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="6">
         <v>0.270833333333333</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="6">
         <v>0.274305555555556</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="6">
         <v>0.277777777777778</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="6">
         <v>0.28125</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="6">
         <v>0.284722222222222</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="6">
         <v>0.288194444444444</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="6">
         <v>0.291666666666667</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="6">
         <v>0.295138888888889</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="6">
         <v>0.298611111111111</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="6">
         <v>0.302083333333333</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="6">
         <v>0.305555555555556</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="6">
         <v>0.309027777777778</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="71" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="53" spans="1:18">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="71" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="106" spans="1:18">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="53" spans="1:18">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="106" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="106" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" ht="106" spans="1:17">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="141" spans="1:17">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:17">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="13">
+        <v>0.309027777777778</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.3125</v>
       </c>
-      <c r="S1" s="2">
+      <c r="D12" s="13">
         <v>0.315972222222222</v>
       </c>
-      <c r="T1" s="2">
+      <c r="E12" s="13">
         <v>0.319444444444444</v>
       </c>
-      <c r="U1" s="2">
+      <c r="F12" s="13">
         <v>0.322916666666667</v>
       </c>
-      <c r="V1" s="2">
+      <c r="G12" s="13">
         <v>0.326388888888889</v>
       </c>
-      <c r="W1" s="2">
+      <c r="H12" s="13">
         <v>0.329861111111111</v>
       </c>
-      <c r="X1" s="2">
+      <c r="I12" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="J12" s="13">
         <v>0.336805555555556</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="K12" s="13">
         <v>0.340277777777778</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="L12" s="13">
         <v>0.34375</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="M12" s="13">
         <v>0.347222222222222</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="N12" s="13">
         <v>0.350694444444444</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="O12" s="13">
         <v>0.354166666666667</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="P12" s="13">
         <v>0.357638888888889</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="Q12" s="13">
         <v>0.361111111111111</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="4:4">
-      <c r="D5" s="3"/>
+    <row r="13" customHeight="1" spans="1:17">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:17">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:17">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:17">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:17">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:17">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:17">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/剧情线.xlsx
+++ b/剧情线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24720"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>这个时候其实除了迪娜以外所有人都已经中了毒了。</t>
+    <t>这个时候其实除了迪娜于科学怪人以外所有人都已经中了毒了。</t>
   </si>
   <si>
     <t>时间线</t>
@@ -34,6 +34,9 @@
     <t>所有人碰了一杯，但是唯独迪娜没有喝。</t>
   </si>
   <si>
+    <t>每个人都表演了节目。</t>
+  </si>
+  <si>
     <t>鬼王</t>
   </si>
   <si>
@@ -43,6 +46,15 @@
     <t>询问狼王前几天攻击迪娜的事情他是否知情。</t>
   </si>
   <si>
+    <t>鬼王提议表演节目。但没有人表演，气氛有点尴尬。</t>
+  </si>
+  <si>
+    <t>鬼王感觉不舒服，先回到房间。</t>
+  </si>
+  <si>
+    <t>鬼王非常生气，这是正好女巫到来。</t>
+  </si>
+  <si>
     <t>科学怪人</t>
   </si>
   <si>
@@ -55,6 +67,12 @@
     <t>2、科学怪人表演节目，不小心把迪娜的酒杯碰碎了。</t>
   </si>
   <si>
+    <t>来到鬼王房间，将女巫的事情告诉鬼王。</t>
+  </si>
+  <si>
+    <t>看到女巫将红色瓶子扔到一边。</t>
+  </si>
+  <si>
     <t>狼王</t>
   </si>
   <si>
@@ -64,7 +82,10 @@
     <t>你随着鬼王一起去拿酒。</t>
   </si>
   <si>
-    <t>被鬼王询问前几天攻击迪娜的事情。</t>
+    <t>被鬼王询问前几天攻击迪娜的事情。极力否认。</t>
+  </si>
+  <si>
+    <t>女巫和狼王吵架</t>
   </si>
   <si>
     <t>女巫</t>
@@ -79,6 +100,12 @@
     <t>1、女巫看到迪娜没有喝，就找借口跟她碰杯。</t>
   </si>
   <si>
+    <t>来到鬼王房间，给解药，但是失望，吵架，离开。</t>
+  </si>
+  <si>
+    <t>将解药扔掉。</t>
+  </si>
+  <si>
     <t>木乃伊</t>
   </si>
   <si>
@@ -88,6 +115,15 @@
     <t>木乃伊偷偷来到迪娜的房间，将自己的提前准备的信件放在了迪娜的房间中。</t>
   </si>
   <si>
+    <t>去迪娜房间找她。路过时看到女巫和狼人吵架。</t>
+  </si>
+  <si>
+    <t>将事情解释清楚，决定跟迪娜远走高飞。</t>
+  </si>
+  <si>
+    <t>开始整理行李。</t>
+  </si>
+  <si>
     <t>公主</t>
   </si>
   <si>
@@ -106,6 +142,12 @@
     <t>3、迪娜去厨房换了一个酒杯。</t>
   </si>
   <si>
+    <t>迪娜扶着鬼王回到他的房间中。</t>
+  </si>
+  <si>
+    <t>回到房间看到木乃伊的信。</t>
+  </si>
+  <si>
     <t>线索</t>
   </si>
   <si>
@@ -115,10 +157,13 @@
     <t>1、被迪娜撕掉的信件，远走高飞。（用于揭开木乃伊身份）</t>
   </si>
   <si>
-    <t>1、科学怪人拥有超强的大脑。</t>
+    <t>1、科学怪人拥有超强的大脑。2、仆人：木乃伊有严重的酒精过敏症，所以准备了饮料。</t>
   </si>
   <si>
     <t>1、所有人的酒杯中都检测到了剧毒，但是唯独迪娜的酒杯中没有。（因为点酒杯碎了，去换了一个新的）</t>
+  </si>
+  <si>
+    <t>1、迪娜整理好的行李。</t>
   </si>
 </sst>
 </file>
@@ -126,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -169,7 +214,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +274,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -190,8 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +320,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,97 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -326,37 +371,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,85 +491,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,55 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,22 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,21 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,7 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,157 +660,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +882,15 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1171,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1"/>
@@ -1229,16 +1283,16 @@
       <c r="Q1" s="6">
         <v>0.309027777777778</v>
       </c>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="71" spans="1:18">
+      <c r="R1" s="17"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="88" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="53" spans="1:18">
       <c r="A3" s="7" t="s">
@@ -1253,11 +1307,12 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1266,190 +1321,218 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="16"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="71" spans="1:18">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="16"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="106" spans="1:18">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="53" spans="1:18">
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="71" spans="1:18">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="16"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="106" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="106" spans="1:18">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="17"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" ht="106" spans="1:17">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="141" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1457,7 +1540,9 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="Q10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
@@ -1532,7 +1617,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1553,7 +1638,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1574,7 +1659,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1595,7 +1680,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1616,7 +1701,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1637,7 +1722,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1658,7 +1743,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1679,6 +1764,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/剧情线.xlsx
+++ b/剧情线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>备注</t>
   </si>
@@ -34,6 +34,9 @@
     <t>所有人碰了一杯，但是唯独迪娜没有喝。</t>
   </si>
   <si>
+    <t>宴会结束。</t>
+  </si>
+  <si>
     <t>鬼王</t>
   </si>
   <si>
@@ -43,18 +46,36 @@
     <t>询问狼王前几天攻击迪娜的事情他是否知情。</t>
   </si>
   <si>
+    <t>鬼王有点累了。打算回到房间中休息。科学怪人扶着鬼王上去。</t>
+  </si>
+  <si>
+    <t>鬼王情况类，科学怪人将自己的发现告诉了鬼王。鬼王让科学怪人叫女巫来见他。</t>
+  </si>
+  <si>
+    <t>鬼王追责，然后女巫装委屈。</t>
+  </si>
+  <si>
     <t>科学怪人</t>
   </si>
   <si>
     <t>此时的科学怪人看着异常的兴奋，头上不断的冒出闪电。</t>
   </si>
   <si>
-    <t>科学怪人发现这个酒有问题， 但是这个桌子上，除了迪娜，他谁都不在乎。</t>
+    <t>科学怪人闻到酒里有奇怪的味道。</t>
   </si>
   <si>
     <t>2、科学怪人表演节目，不小心把迪娜的酒杯碰碎了。</t>
   </si>
   <si>
+    <t>扶着鬼王上去休息。</t>
+  </si>
+  <si>
+    <t>来到大厅，发现迪娜也在。今天晚上就将自己是她妈妈的各种事儿全部告诉她。</t>
+  </si>
+  <si>
+    <t>看到狼王在偷听，你示意让他离开。</t>
+  </si>
+  <si>
     <t>狼王</t>
   </si>
   <si>
@@ -64,7 +85,16 @@
     <t>你随着鬼王一起去拿酒。</t>
   </si>
   <si>
-    <t>被鬼王询问前几天攻击迪娜的事情。</t>
+    <t>被鬼王询问前几天攻击迪娜的事情。狼王表示不知情</t>
+  </si>
+  <si>
+    <t>狼王叫着女巫去了花园，问前几天迪娜被害的事情。</t>
+  </si>
+  <si>
+    <t>去找迪娜将前几天遇袭的事情告诉迪娜，但是看到迪娜偷偷的进入了木乃伊的房间。所有就回到了自己的房间。</t>
+  </si>
+  <si>
+    <t>狼王想去找鬼王摊牌，但是听到鬼王的房间中女巫和鬼王正在吵架。</t>
   </si>
   <si>
     <t>女巫</t>
@@ -79,6 +109,18 @@
     <t>1、女巫看到迪娜没有喝，就找借口跟她碰杯。</t>
   </si>
   <si>
+    <t>回到房间，赶紧拿出放在抽屉的解药，喝了一般，才放下心来。</t>
+  </si>
+  <si>
+    <t>回想着鬼王在宴会上的反应，好像并没有想要追究自己责任的意思，拿起解药正要出去，碰到科学怪人。</t>
+  </si>
+  <si>
+    <t>女巫被科学怪人叫到鬼王的房间。</t>
+  </si>
+  <si>
+    <t>跟鬼王吵架。</t>
+  </si>
+  <si>
     <t>木乃伊</t>
   </si>
   <si>
@@ -88,6 +130,21 @@
     <t>木乃伊偷偷来到迪娜的房间，将自己的提前准备的信件放在了迪娜的房间中。</t>
   </si>
   <si>
+    <t>木乃伊也回房间，然后悄悄进入了女巫房间中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 女巫回来了，你悄悄的躲在床下，不说话。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>你看到女巫被科学怪人叫了出去。你拿走桌子上的药水，有点头晕，喝了这个药水。（这个药水你知道，就是你的姐姐死的那个毒的解药）</t>
+  </si>
+  <si>
+    <t>离开女巫房间，去找迪娜，但是迪娜房间没有人。听到女巫和鬼王在吵架。</t>
+  </si>
+  <si>
     <t>公主</t>
   </si>
   <si>
@@ -106,6 +163,15 @@
     <t>3、迪娜去厨房换了一个酒杯。</t>
   </si>
   <si>
+    <t>迪娜没有心情回到房间。</t>
+  </si>
+  <si>
+    <t>看到木乃伊留下的信，非常开心，跑去找木乃伊，发现房间没人。</t>
+  </si>
+  <si>
+    <t>来大厅想点东西，但是发现酒杯中有白色粉末。</t>
+  </si>
+  <si>
     <t>线索</t>
   </si>
   <si>
@@ -119,6 +185,45 @@
   </si>
   <si>
     <t>1、所有人的酒杯中都检测到了剧毒，但是唯独迪娜的酒杯中没有。（因为点酒杯碎了，去换了一个新的）</t>
+  </si>
+  <si>
+    <t>所有人都被吓了一跳。</t>
+  </si>
+  <si>
+    <t>本来想当场杀死女巫，但是自己状态不好，而且念在多年好友的份上，让她滚蛋。</t>
+  </si>
+  <si>
+    <t>拔下鬼王的匕首，发现伤口既然在愈合。鬼王的身体素质太强大了。</t>
+  </si>
+  <si>
+    <t>从房间中将电线连在插座上，然后通过自己的功率放大器，将电压和电流升高，电死了鬼王。同时整个大厅停电。</t>
+  </si>
+  <si>
+    <t>没有来得及处理鬼王的身体，就直接去接通电源了。</t>
+  </si>
+  <si>
+    <t>来电。科学怪人将断了的保险丝放扔到垃圾桶，重新换了一个。</t>
+  </si>
+  <si>
+    <t>想着女巫是不是在陷害自己。心里有点没底。</t>
+  </si>
+  <si>
+    <t>来到大厅，制作凶器。（弄出几个线索来）</t>
+  </si>
+  <si>
+    <t>偷偷来到鬼王房间，发现鬼王躺在地上。非常吃惊，但是正好，将匕首插进了他的心脏中。</t>
+  </si>
+  <si>
+    <t>没有将解药交给鬼王，知道就算这次逃脱了，下次保不准。而且看到鬼王的样子很累，所以一不做二不休。</t>
+  </si>
+  <si>
+    <t>回到房间收拾行李，打算远走高飞。离开这个古堡。</t>
+  </si>
+  <si>
+    <t>发现鬼王已经死亡，开始翻阅他的房间，找关于自己姐姐（或者是师傅）的线索。</t>
+  </si>
+  <si>
+    <t>1、一些制作工具所用的道具和线索。</t>
   </si>
 </sst>
 </file>
@@ -126,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -169,7 +274,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,128 +409,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -326,13 +431,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,169 +479,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,52 +666,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,7 +690,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,157 +720,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +919,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,6 +945,9 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1"/>
@@ -1181,67 +1292,58 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>0.25</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="7">
         <v>0.260416666666667</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="7">
         <v>0.263888888888889</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="7">
         <v>0.267361111111111</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="7">
         <v>0.270833333333333</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="7">
         <v>0.274305555555556</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="7">
         <v>0.277777777777778</v>
       </c>
-      <c r="I1" s="6">
-        <v>0.28125</v>
-      </c>
-      <c r="J1" s="6">
-        <v>0.284722222222222</v>
-      </c>
-      <c r="K1" s="6">
-        <v>0.288194444444444</v>
-      </c>
-      <c r="L1" s="6">
+      <c r="I1" s="7">
         <v>0.291666666666667</v>
       </c>
-      <c r="M1" s="6">
+      <c r="J1" s="7">
         <v>0.295138888888889</v>
       </c>
-      <c r="N1" s="6">
+      <c r="K1" s="7">
         <v>0.298611111111111</v>
       </c>
-      <c r="O1" s="6">
+      <c r="L1" s="7">
         <v>0.302083333333333</v>
       </c>
-      <c r="P1" s="6">
+      <c r="M1" s="7">
         <v>0.305555555555556</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="N1" s="7">
         <v>0.309027777777778</v>
       </c>
-      <c r="R1" s="14"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="71" spans="1:18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="53" spans="1:18">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1257,306 +1359,328 @@
         <v>5</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="71" spans="1:18">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="106" spans="1:18">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="16"/>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="106" spans="1:18">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
+      <c r="A5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="53" spans="1:18">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="159" spans="1:18">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="106" spans="1:18">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="141" spans="1:18">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="106" spans="1:18">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="194" spans="1:18">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="17"/>
-    </row>
-    <row r="9" ht="106" spans="1:17">
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="106" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="141" spans="1:17">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="141" spans="1:14">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
       <c r="A12" s="3"/>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>0.309027777777778</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>0.3125</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>0.315972222222222</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>0.319444444444444</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="14">
         <v>0.322916666666667</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <v>0.326388888888889</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>0.329861111111111</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="14">
         <v>0.336805555555556</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <v>0.340277777777778</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="14">
         <v>0.34375</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="14">
         <v>0.347222222222222</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="14">
         <v>0.350694444444444</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="14">
         <v>0.354166666666667</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="14">
         <v>0.357638888888889</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="14">
         <v>0.361111111111111</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:17">
+    <row r="13" s="5" customFormat="1" ht="36" spans="1:17">
       <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="124" spans="1:17">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1572,7 +1696,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" customHeight="1" spans="1:17">
+    <row r="15" s="5" customFormat="1" ht="159" spans="1:17">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1581,11 +1705,18 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1593,15 +1724,21 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" customHeight="1" spans="1:17">
+    <row r="16" s="5" customFormat="1" ht="124" spans="1:17">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1614,14 +1751,18 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" customHeight="1" spans="1:17">
+    <row r="17" s="5" customFormat="1" ht="141" spans="1:17">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1635,9 +1776,9 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" customHeight="1" spans="1:17">
+    <row r="18" s="5" customFormat="1" ht="106" spans="1:17">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1647,7 +1788,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1656,9 +1799,9 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:17">
+    <row r="19" s="5" customFormat="1" ht="17.6" spans="1:17">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1677,6 +1820,29 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
+    <row r="20" customHeight="1" spans="1:17">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/剧情线.xlsx
+++ b/剧情线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>备注</t>
   </si>
@@ -70,6 +70,12 @@
     <t>扶着鬼王上去休息。</t>
   </si>
   <si>
+    <t>鬼王跟你聊起年轻时候的事情，同时又聊起安娜。</t>
+  </si>
+  <si>
+    <t>你将知道的事情全部告诉了鬼王。</t>
+  </si>
+  <si>
     <t>来到大厅，发现迪娜也在。今天晚上就将自己是她妈妈的各种事儿全部告诉她。</t>
   </si>
   <si>
@@ -193,10 +199,13 @@
     <t>本来想当场杀死女巫，但是自己状态不好，而且念在多年好友的份上，让她滚蛋。</t>
   </si>
   <si>
-    <t>拔下鬼王的匕首，发现伤口既然在愈合。鬼王的身体素质太强大了。</t>
-  </si>
-  <si>
-    <t>从房间中将电线连在插座上，然后通过自己的功率放大器，将电压和电流升高，电死了鬼王。同时整个大厅停电。</t>
+    <t>拿出准备已久的特斯拉线圈，放进包中。</t>
+  </si>
+  <si>
+    <t>拔下鬼王的匕首，发现伤口既然在愈合。鬼王的身体素质太强大了。从房间中将电线连在插座上，然后通过自己的功率放大器，将电压和电流升高，电死了鬼王。同时整个大厅停电。</t>
+  </si>
+  <si>
+    <t>沿着窗户外回到自己的房间。</t>
   </si>
   <si>
     <t>没有来得及处理鬼王的身体，就直接去接通电源了。</t>
@@ -224,6 +233,12 @@
   </si>
   <si>
     <t>1、一些制作工具所用的道具和线索。</t>
+  </si>
+  <si>
+    <t>1、鬼王鞋子脱下后，脚底一片漆黑，像是有烧焦的痕迹。</t>
+  </si>
+  <si>
+    <t>1、破碎的衣角。</t>
   </si>
 </sst>
 </file>
@@ -231,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -274,9 +289,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,32 +333,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,6 +350,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -335,7 +404,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,60 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -431,187 +446,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +681,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,7 +720,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,32 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,157 +754,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,9 +934,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,9 +957,6 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1"/>
@@ -1292,58 +1301,58 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>0.25</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>0.260416666666667</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>0.263888888888889</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>0.267361111111111</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>0.270833333333333</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>0.274305555555556</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>0.277777777777778</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>0.291666666666667</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>0.295138888888889</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>0.298611111111111</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>0.302083333333333</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>0.305555555555556</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>0.309027777777778</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="71" spans="1:18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="17"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="53" spans="1:18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1367,10 +1376,10 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="R3" s="18"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="106" spans="1:18">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1394,10 +1403,10 @@
       <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="106" spans="1:18">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1414,272 +1423,277 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="159" spans="1:18">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
+      <c r="A6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="141" spans="1:18">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
+      <c r="A7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="194" spans="1:18">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
+      <c r="A8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="106" spans="1:14">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
+      <c r="A9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" s="6" customFormat="1" ht="141" spans="1:14">
-      <c r="A10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10" t="s">
+    <row r="10" s="5" customFormat="1" ht="141" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
       <c r="A12" s="3"/>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.309027777777778</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.3125</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.315972222222222</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.319444444444444</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.322916666666667</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.326388888888889</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.329861111111111</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>0.336805555555556</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>0.340277777777778</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>0.34375</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>0.347222222222222</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>0.350694444444444</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>0.354166666666667</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>0.357638888888889</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>0.361111111111111</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="36" spans="1:17">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="124" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1696,26 +1710,29 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" s="5" customFormat="1" ht="159" spans="1:17">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="5" customFormat="1" ht="247" spans="1:17">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1725,19 +1742,19 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="124" spans="1:17">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
+      <c r="A16" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1752,16 +1769,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="141" spans="1:17">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
+      <c r="A17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1777,8 +1794,8 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="106" spans="1:17">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
+      <c r="A18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1789,7 +1806,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1800,8 +1817,8 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" s="5" customFormat="1" ht="17.6" spans="1:17">
-      <c r="A19" s="8" t="s">
-        <v>43</v>
+      <c r="A19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1820,19 +1837,23 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" customHeight="1" spans="1:17">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
+    <row r="20" ht="88" spans="1:17">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>

--- a/剧情线.xlsx
+++ b/剧情线.xlsx
@@ -246,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -282,13 +282,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -297,6 +290,92 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,49 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,44 +405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,163 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,47 +671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,16 +717,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,85 +770,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,61 +857,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6428571428571" defaultRowHeight="35" customHeight="1"/>
